--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_18-27.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_18-27.xlsx
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
@@ -2822,17 +2825,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2848,13 +2851,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2866,7 +2869,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2874,17 +2877,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>94.5</v>
+        <v>51</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2906,11 +2909,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>49</v>
+        <v>94.5</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2926,13 +2929,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2944,7 +2947,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2952,13 +2955,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2970,7 +2973,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2978,13 +2981,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3004,17 +3007,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3022,7 +3025,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3030,17 +3033,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3048,7 +3051,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3056,17 +3059,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3074,7 +3077,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3082,13 +3085,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3100,7 +3103,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3108,13 +3111,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3134,13 +3137,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3148,37 +3151,63 @@
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
-      <c r="K88" s="10">
-        <v>5426.6700000000001</v>
-      </c>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-    </row>
-    <row r="89" ht="17.25" customHeight="1">
-      <c t="s" r="A89" s="11">
+      <c r="A88" s="6">
+        <v>85</v>
+      </c>
+      <c t="s" r="B88" s="7">
+        <v>124</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c t="s" r="H88" s="8">
         <v>125</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c t="s" r="F89" s="12">
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9">
+        <v>30</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c t="s" r="N88" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="K89" s="10">
+        <v>5488.6700000000001</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="11">
         <v>126</v>
       </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="13"/>
-      <c t="s" r="I89" s="14">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c t="s" r="F90" s="12">
         <v>127</v>
       </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="13"/>
+      <c t="s" r="I90" s="14">
+        <v>128</v>
+      </c>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="263">
+  <mergeCells count="266">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3438,10 +3467,13 @@
     <mergeCell ref="B87:G87"/>
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="I89:N89"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="I90:N90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
